--- a/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/1 PharmaceuticalBlends/PharmaceuticalMaterials.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/1 PharmaceuticalBlends/PharmaceuticalMaterials.xlsx
@@ -8251,13 +8251,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A042B7-F926-4D84-9EB5-5DF8FC446801}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D3F4334-77DA-4281-806E-4D3B1129D402}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7999E309-BCB9-43A0-B5F1-5F0365E7324B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0AF2DA9-1FB1-4446-A810-B103D2B99D1B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95181BF-23B8-4D73-9511-A6E4E7A1ADE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB33E3AE-4F4A-4D68-A18B-D8F51944C478}"/>
 </file>